--- a/Tablas + Diego Muro (Preentrega).xlsx
+++ b/Tablas + Diego Muro (Preentrega).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\DM\PUENTE\TIC\CH04-SQL\Proyecto final SQL 2022\1er_preentrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98EF5E-7AD2-4FAD-BDB0-90A76AD8CEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF445E60-72E4-443B-8D60-782C43FB3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="181">
   <si>
     <t>TABLA 1</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>PAIS  (TABLA DE HECHO)</t>
+  </si>
+  <si>
+    <t>vta_order_prod</t>
+  </si>
+  <si>
+    <t>Identificador de Orden y producto</t>
+  </si>
+  <si>
+    <t>Venta productos en ordenes</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -982,8 +991,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1312,8 +1319,8 @@
   </sheetPr>
   <dimension ref="B1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,54 +1374,54 @@
       <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="27"/>
       <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="27"/>
       <c r="N3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="27"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="27"/>
       <c r="H4" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="27"/>
       <c r="N4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="27"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -1578,10 +1585,10 @@
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="34" t="s">
@@ -1632,56 +1639,56 @@
       <c r="B12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="27"/>
       <c r="H12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="27"/>
       <c r="N12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
       <c r="R12" s="27"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="27"/>
       <c r="H13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="27"/>
       <c r="N13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="27"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -2112,10 +2119,10 @@
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="34" t="s">
@@ -2166,11 +2173,11 @@
       <c r="B30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="27"/>
       <c r="H30" s="26" t="s">
         <v>6</v>
@@ -2184,22 +2191,22 @@
       <c r="N30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="27"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="27"/>
       <c r="H31" s="26" t="s">
         <v>44</v>
@@ -2213,11 +2220,11 @@
       <c r="N31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -2284,19 +2291,19 @@
         <v>130</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="31" t="s">
-        <v>126</v>
+      <c r="L33" s="38" t="s">
+        <v>179</v>
       </c>
       <c r="N33" s="32" t="s">
         <v>27</v>
@@ -2331,17 +2338,17 @@
       <c r="H34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>42</v>
+      <c r="I34" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N34" s="32"/>
       <c r="O34" s="6" t="s">
@@ -2373,18 +2380,20 @@
       <c r="F35" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="6" t="s">
-        <v>40</v>
+      <c r="H35" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="6"/>
@@ -2409,10 +2418,18 @@
         <v>124</v>
       </c>
       <c r="H36" s="32"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="N36" s="32"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -2514,58 +2531,58 @@
       <c r="B42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="27"/>
       <c r="H42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="27"/>
       <c r="N42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
       <c r="R42" s="27"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="27"/>
       <c r="H43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="27"/>
       <c r="N43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="40" t="s">
+      <c r="O43" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
       <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
@@ -2792,58 +2809,58 @@
       <c r="B52" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="27"/>
       <c r="H52" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="27"/>
       <c r="N52" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
       <c r="R52" s="27"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="27"/>
       <c r="H53" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="27"/>
       <c r="N53" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O53" s="40" t="s">
+      <c r="O53" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
       <c r="R53" s="27"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -3071,40 +3088,40 @@
       <c r="B62" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="27"/>
       <c r="H62" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
       <c r="L62" s="27"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="27"/>
       <c r="H63" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="27"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">

--- a/Tablas + Diego Muro (Preentrega).xlsx
+++ b/Tablas + Diego Muro (Preentrega).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\DM\PUENTE\TIC\CH04-SQL\Proyecto final SQL 2022\1er_preentrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF445E60-72E4-443B-8D60-782C43FB3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E52B940-219D-4B8B-8E87-63FE4095D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="181">
   <si>
     <t>TABLA 1</t>
   </si>
@@ -554,9 +554,6 @@
     <t>RETORNOS  (TABLA DE HECHO)</t>
   </si>
   <si>
-    <t>PRODUCTO  (TABLA DE HECHO)</t>
-  </si>
-  <si>
     <t>ORDENES - PRODUCTO  (TABLA DE HECHO)</t>
   </si>
   <si>
@@ -572,13 +569,16 @@
     <t>PAIS  (TABLA DE HECHO)</t>
   </si>
   <si>
-    <t>vta_order_prod</t>
-  </si>
-  <si>
     <t>Identificador de Orden y producto</t>
   </si>
   <si>
     <t>Venta productos en ordenes</t>
+  </si>
+  <si>
+    <t>PRODUCTOS  (TABLA DE HECHO)</t>
+  </si>
+  <si>
+    <t>Id_vta_order_prod</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1317,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R69"/>
+  <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2091,309 +2091,317 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="31"/>
-    </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="41" t="s">
+      <c r="C26" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D26" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="35" t="s">
+      <c r="E26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="2" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="N29" s="18" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="27"/>
+      <c r="H29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="27"/>
+      <c r="N29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>172</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="27"/>
       <c r="H30" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>173</v>
+        <v>44</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="27"/>
       <c r="N30" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="27"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="27"/>
-      <c r="H31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="27"/>
-      <c r="N31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="27"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="28" t="s">
+      <c r="N31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="29" t="s">
+      <c r="R31" s="29" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="32" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="33" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>42</v>
+      <c r="B33" s="32"/>
+      <c r="C33" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>180</v>
+        <v>29</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>103</v>
+      <c r="L33" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="N33" s="32"/>
+      <c r="O33" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R33" s="31" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="6" t="s">
-        <v>59</v>
+      <c r="B34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>38</v>
+      <c r="I34" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N34" s="32"/>
-      <c r="O34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="31" t="s">
-        <v>142</v>
-      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>42</v>
+        <v>124</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="6"/>
@@ -2402,34 +2410,24 @@
       <c r="R35" s="31"/>
     </row>
     <row r="36" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>61</v>
+      <c r="B36" s="32"/>
+      <c r="C36" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="N36" s="32"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -2439,16 +2437,16 @@
     <row r="37" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="32"/>
       <c r="C37" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
@@ -2461,263 +2459,265 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
-      <c r="C38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="31"/>
-    </row>
-    <row r="39" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="35"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="35"/>
-    </row>
-    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
+    <row r="38" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="H41" s="18" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="N41" s="18" t="s">
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="N40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="27"/>
+      <c r="H41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="27"/>
+      <c r="N41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="27"/>
       <c r="H42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="27"/>
       <c r="N42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="22" t="s">
-        <v>174</v>
+        <v>44</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="27"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="27"/>
-      <c r="H43" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="27"/>
-      <c r="N43" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="27"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="28" t="s">
+      <c r="N43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="29" t="s">
+      <c r="R43" s="29" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="44" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="45" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>60</v>
+      <c r="B45" s="32"/>
+      <c r="C45" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>61</v>
+        <v>119</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="N45" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="N45" s="32"/>
+      <c r="O45" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="32"/>
-      <c r="C46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>119</v>
-      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="31"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="6" t="s">
-        <v>94</v>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="31"/>
+      <c r="N46" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R46" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2731,546 +2731,519 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="31"/>
-      <c r="N47" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R47" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="32"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="31"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="31"/>
-    </row>
-    <row r="49" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="35"/>
-    </row>
-    <row r="50" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="18" t="s">
+      <c r="N47" s="32"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="31"/>
+    </row>
+    <row r="48" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="35"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="H51" s="18" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="H50" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="N51" s="18" t="s">
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="N50" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="27"/>
+      <c r="H51" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="27"/>
+      <c r="N51" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="27"/>
       <c r="H52" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="27"/>
       <c r="N52" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="22" t="s">
-        <v>175</v>
+        <v>44</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="27"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="27"/>
-      <c r="H53" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="27"/>
-      <c r="N53" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="27"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H53" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="28" t="s">
+      <c r="N53" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="29" t="s">
+      <c r="R53" s="29" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="54" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="55" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>86</v>
+      <c r="B55" s="32"/>
+      <c r="C55" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>83</v>
+        <v>135</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="15" t="s">
-        <v>81</v>
+        <v>116</v>
+      </c>
+      <c r="N55" s="32"/>
+      <c r="O55" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R55" s="31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="32"/>
       <c r="C56" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H56" s="32"/>
-      <c r="I56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="6" t="s">
-        <v>113</v>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="31"/>
+      <c r="N56" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R56" s="31" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="32"/>
-      <c r="C57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>136</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="31"/>
       <c r="H57" s="32"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="31"/>
-      <c r="N57" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="32"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="31"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="31"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="31"/>
-    </row>
-    <row r="59" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="35"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="35"/>
-    </row>
-    <row r="60" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="18" t="s">
+      <c r="N57" s="32"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="31"/>
+    </row>
+    <row r="58" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="H61" s="18" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="27"/>
+      <c r="H61" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="27"/>
       <c r="H62" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>177</v>
+        <v>44</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
       <c r="L62" s="27"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="27"/>
-      <c r="H63" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="27"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="B63" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F63" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H63" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="29" t="s">
+      <c r="L63" s="29" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="64" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="65" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="32"/>
+      <c r="C65" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="J66" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" s="31" t="s">
+      <c r="K66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H65" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="32"/>
-      <c r="C66" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H66" s="32"/>
-      <c r="I66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="67" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="32"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="31"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="31"/>
-    </row>
-    <row r="69" spans="2:12" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="35"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="35"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="31"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="31"/>
+    </row>
+    <row r="68" spans="2:12" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tablas + Diego Muro (Preentrega).xlsx
+++ b/Tablas + Diego Muro (Preentrega).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\DM\PUENTE\TIC\CH04-SQL\Proyecto final SQL 2022\1er_preentrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E52B940-219D-4B8B-8E87-63FE4095D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3330F-CDAA-495A-AA87-65D91DC1A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Varchar(20)</t>
-  </si>
-  <si>
     <t>Id de cliente</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>CATEGORIA  (TABLA DIMENSIONAL)</t>
   </si>
   <si>
-    <t>SUB-CATEGORIA  (TABLA DIMENSIONAL)</t>
-  </si>
-  <si>
     <t>VENDEDOR  (TABLA DIMENSIONAL)</t>
   </si>
   <si>
@@ -579,13 +573,19 @@
   </si>
   <si>
     <t>Id_vta_order_prod</t>
+  </si>
+  <si>
+    <t>Varchar(100)</t>
+  </si>
+  <si>
+    <t>SUB-CATEGORIA  (TABLA DE HECHO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +634,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -951,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -994,6 +1009,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1337,7 @@
   <dimension ref="B1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R68"/>
+      <selection activeCell="B68" sqref="B2:R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,17 +1391,17 @@
       <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="21"/>
+      <c r="C3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="43"/>
       <c r="E3" s="21"/>
       <c r="F3" s="27"/>
       <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -1393,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -1401,7 +1418,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>22</v>
@@ -1410,14 +1427,14 @@
       <c r="E4" s="21"/>
       <c r="F4" s="27"/>
       <c r="H4" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="27"/>
       <c r="N4" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -1473,102 +1490,102 @@
     </row>
     <row r="6" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="Q6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="Q7" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>23</v>
@@ -1586,19 +1603,19 @@
     </row>
     <row r="9" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
@@ -1639,26 +1656,26 @@
       <c r="B12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="C12" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="43"/>
       <c r="E12" s="21"/>
       <c r="F12" s="27"/>
       <c r="H12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="21"/>
+      <c r="I12" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="43"/>
       <c r="K12" s="21"/>
       <c r="L12" s="27"/>
       <c r="N12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -1666,26 +1683,26 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="27"/>
       <c r="H13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="27"/>
       <c r="N13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -1740,122 +1757,122 @@
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>128</v>
-      </c>
       <c r="N15" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="32"/>
       <c r="O16" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N17" s="32"/>
       <c r="O17" s="6"/>
@@ -1865,34 +1882,34 @@
     </row>
     <row r="18" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N18" s="32"/>
       <c r="O18" s="6"/>
@@ -1903,31 +1920,31 @@
     <row r="19" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>145</v>
-      </c>
       <c r="H19" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N19" s="32"/>
       <c r="O19" s="6"/>
@@ -1938,16 +1955,16 @@
     <row r="20" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="6"/>
@@ -1963,16 +1980,16 @@
     <row r="21" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="6"/>
@@ -1988,16 +2005,16 @@
     <row r="22" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="6"/>
@@ -2012,19 +2029,19 @@
     </row>
     <row r="23" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="6"/>
@@ -2039,19 +2056,19 @@
     </row>
     <row r="24" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="6"/>
@@ -2066,19 +2083,19 @@
     </row>
     <row r="25" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="6"/>
@@ -2093,19 +2110,19 @@
     </row>
     <row r="26" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="E26" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
@@ -2146,26 +2163,26 @@
       <c r="B29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="C29" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="43"/>
       <c r="E29" s="21"/>
       <c r="F29" s="27"/>
       <c r="H29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="21"/>
+      <c r="I29" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="43"/>
       <c r="K29" s="21"/>
       <c r="L29" s="27"/>
       <c r="N29" s="26" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -2173,28 +2190,28 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="27"/>
       <c r="H30" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="27"/>
       <c r="N30" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
@@ -2249,97 +2266,97 @@
     </row>
     <row r="32" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R32" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32"/>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>58</v>
-      </c>
       <c r="H33" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N33" s="32"/>
       <c r="O33" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="R33" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>60</v>
@@ -2348,25 +2365,25 @@
         <v>62</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="K34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N34" s="32"/>
       <c r="O34" s="6"/>
@@ -2375,33 +2392,31 @@
       <c r="R34" s="31"/>
     </row>
     <row r="35" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>61</v>
+      <c r="B35" s="32"/>
+      <c r="C35" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="6"/>
@@ -2412,16 +2427,16 @@
     <row r="36" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>145</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
@@ -2436,18 +2451,10 @@
     </row>
     <row r="37" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="32"/>
-      <c r="C37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>146</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="31"/>
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -2505,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -2513,46 +2520,46 @@
       <c r="H41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" s="21"/>
+      <c r="I41" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="43"/>
       <c r="K41" s="21"/>
       <c r="L41" s="27"/>
       <c r="N41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O41" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="P41" s="21"/>
+      <c r="O41" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" s="43"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="27"/>
       <c r="H42" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="27"/>
       <c r="N42" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -2607,90 +2614,90 @@
     </row>
     <row r="44" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="J44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="K44" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O44" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R44" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="32"/>
       <c r="C45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>119</v>
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L45" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="N45" s="32"/>
       <c r="O45" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2699,25 +2706,35 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="31"/>
+      <c r="H46" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="N46" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R46" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2783,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2792,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -2800,37 +2817,37 @@
       <c r="N51" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O51" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="P51" s="21"/>
+      <c r="O51" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" s="43"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="27"/>
       <c r="H52" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="27"/>
       <c r="N52" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
@@ -2885,105 +2902,105 @@
     </row>
     <row r="54" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R54" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="32"/>
       <c r="C55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="E55" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N55" s="32"/>
       <c r="O55" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R55" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R55" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="32"/>
       <c r="C56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="E56" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="6"/>
@@ -2991,19 +3008,19 @@
       <c r="K56" s="6"/>
       <c r="L56" s="31"/>
       <c r="N56" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R56" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3050,7 +3067,7 @@
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
       <c r="H60" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
@@ -3061,37 +3078,37 @@
       <c r="B61" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="21"/>
+      <c r="C61" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="43"/>
       <c r="E61" s="21"/>
       <c r="F61" s="27"/>
       <c r="H61" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="J61" s="21"/>
+      <c r="I61" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" s="43"/>
       <c r="K61" s="21"/>
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="27"/>
       <c r="H62" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
@@ -3131,94 +3148,94 @@
     </row>
     <row r="64" spans="2:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="K64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="32"/>
       <c r="C65" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L66" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="2:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3247,6 +3264,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>